--- a/ExcelToCs/配置/图鉴配置表.xlsx
+++ b/ExcelToCs/配置/图鉴配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856E23E3-E4DA-4AF1-885B-FB7758A6FA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FC240C-4EBF-4AEF-A8FF-C4AEAA42F560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15990" yWindow="1875" windowWidth="33000" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="1215" windowWidth="38700" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#PlantIllustrations" sheetId="2" r:id="rId1"/>
@@ -316,123 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plantInfo_Peashooter</t>
-  </si>
-  <si>
-    <t>plantInfo_Repeater</t>
-  </si>
-  <si>
-    <t>plantInfo_Cactus</t>
-  </si>
-  <si>
-    <t>plantInfo_Blover</t>
-  </si>
-  <si>
-    <t>plantInfo_Cattail</t>
-  </si>
-  <si>
-    <t>plantInfo_CherryBomb</t>
-  </si>
-  <si>
-    <t>plantInfo_Chomper</t>
-  </si>
-  <si>
-    <t>plantInfo_CoffeeBean</t>
-  </si>
-  <si>
-    <t>plantInfo_CornpultCard</t>
-  </si>
-  <si>
-    <t>plantInfo_FumeShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_GatlingPea</t>
-  </si>
-  <si>
-    <t>plantInfo_GloomShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_GoldMagent</t>
-  </si>
-  <si>
-    <t>plantInfo_LilyPad</t>
-  </si>
-  <si>
-    <t>plantInfo_Gralic</t>
-  </si>
-  <si>
-    <t>plantInfo_Gravebuster</t>
-  </si>
-  <si>
-    <t>plantInfo_HypnoShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_MagentShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_Marigold</t>
-  </si>
-  <si>
-    <t>plantInfo_Plantern</t>
-  </si>
-  <si>
-    <t>plantInfo_PuffShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_PumpkinHead</t>
-  </si>
-  <si>
-    <t>plantInfo_ScaredyShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_SnowPea</t>
-  </si>
-  <si>
-    <t>plantInfo_Spikerock</t>
-  </si>
-  <si>
-    <t>plantInfo_Spikeweed</t>
-  </si>
-  <si>
-    <t>plantInfo_SplitPea</t>
-  </si>
-  <si>
-    <t>plantInfo_Starfruit</t>
-  </si>
-  <si>
-    <t>plantInfo_SunFlower</t>
-  </si>
-  <si>
-    <t>plantInfo_TallNut</t>
-  </si>
-  <si>
-    <t>plantInfo_Threepeater</t>
-  </si>
-  <si>
-    <t>plantInfo_Torchwood</t>
-  </si>
-  <si>
-    <t>plantInfo_TwinSunflower</t>
-  </si>
-  <si>
-    <t>plantInfo_WallNut</t>
-  </si>
-  <si>
-    <t>plantInfo_IceShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_Jalapeno</t>
-  </si>
-  <si>
-    <t>plantInfo_DoomShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_Squash</t>
-  </si>
-  <si>
-    <t>plantInfo_PotatoMine</t>
-  </si>
-  <si>
     <t>CobCannon</t>
   </si>
   <si>
@@ -440,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plantInfo_CobCannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>植物预制体路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,125 +412,247 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Prefabs/Plants/UI/Repeater</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Cactus</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Blover</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Cattail</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/CherryBomb</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Chomper</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/CoffeeBean</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/FumeShroom</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/GatlingPea</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/GloomShroom</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/GoldMagent</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/LilyPad</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Gralic</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Gravebuster</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/HypnoShroom</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/MagentShroom</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Marigold</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Plantern</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/PuffShroom</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/PumpkinHead</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/ScaredyShroom</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/SnowPea</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Spikerock</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Spikeweed</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/SplitPea</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Starfruit</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/SunFlower</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/TallNut</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Threepeater</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Torchwood</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/TwinSunflower</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/WallNut</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/IceShroom</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Jalapeno</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/DoomShroom</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Squash</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/PotatoMine</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/CobCannon</t>
+  </si>
+  <si>
+    <t>Prefabs/Plants/UI/Cornpult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Prefabs/Plants/UI/Peashooter</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Repeater</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Cactus</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Blover</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Cattail</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/CherryBomb</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Chomper</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/CoffeeBean</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/FumeShroom</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/GatlingPea</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/GloomShroom</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/GoldMagent</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/LilyPad</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Gralic</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Gravebuster</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/HypnoShroom</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/MagentShroom</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Marigold</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Plantern</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/PuffShroom</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/PumpkinHead</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/ScaredyShroom</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/SnowPea</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Spikerock</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Spikeweed</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/SplitPea</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Starfruit</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/SunFlower</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/TallNut</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Threepeater</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Torchwood</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/TwinSunflower</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/WallNut</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/IceShroom</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Jalapeno</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/DoomShroom</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Squash</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/PotatoMine</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/CobCannon</t>
-  </si>
-  <si>
-    <t>Prefabs/Plants/UI/Cornpult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Peashooter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Repeater</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Cactus</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Blover</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Cattail</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_CherryBomb</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Chomper</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_CoffeeBean</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Cornpult</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_FumeShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_GatlingPea</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_GloomShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_GoldMagent</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_LilyPad</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Gralic</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Gravebuster</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_HypnoShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_MagentShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Marigold</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Plantern</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_PuffShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_PumpkinHead</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_ScaredyShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_SnowPea</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Spikerock</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Spikeweed</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_SplitPea</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Starfruit</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_SunFlower</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_TallNut</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Threepeater</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Torchwood</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_TwinSunflower</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_WallNut</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_IceShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Jalapeno</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_DoomShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Squash</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_PotatoMine</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_CobCannon</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1107,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1139,7 +1140,7 @@
         <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -1153,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1167,10 +1168,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
         <v>153</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1181,10 +1182,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
         <v>154</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1195,10 +1196,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
         <v>155</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1209,10 +1210,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
         <v>156</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1223,10 +1224,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
         <v>157</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1237,10 +1238,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
         <v>158</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1251,10 +1252,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
         <v>159</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -1268,10 +1269,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
         <v>160</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>6</v>
@@ -1285,10 +1286,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>7</v>
@@ -1302,10 +1303,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>8</v>
@@ -1319,10 +1320,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
+      </c>
+      <c r="D14" t="s">
+        <v>163</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
@@ -1336,10 +1337,10 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>164</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>10</v>
@@ -1353,10 +1354,10 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>165</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>7</v>
@@ -1370,10 +1371,10 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
+      </c>
+      <c r="D17" t="s">
+        <v>166</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1387,10 +1388,10 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>167</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>9</v>
@@ -1404,10 +1405,10 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>168</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>12</v>
@@ -1421,10 +1422,10 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>169</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>7</v>
@@ -1438,10 +1439,10 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>170</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
@@ -1455,10 +1456,10 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>171</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>9</v>
@@ -1472,10 +1473,10 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
+      </c>
+      <c r="D23" t="s">
+        <v>172</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>14</v>
@@ -1489,10 +1490,10 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
+      </c>
+      <c r="D24" t="s">
+        <v>173</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>7</v>
@@ -1506,10 +1507,10 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
+      </c>
+      <c r="D25" t="s">
+        <v>174</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>15</v>
@@ -1523,10 +1524,10 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
+      </c>
+      <c r="D26" t="s">
+        <v>175</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>9</v>
@@ -1540,10 +1541,10 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
+      </c>
+      <c r="D27" t="s">
+        <v>176</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>16</v>
@@ -1557,10 +1558,10 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>177</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>7</v>
@@ -1574,10 +1575,10 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
+      </c>
+      <c r="D29" t="s">
+        <v>178</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
@@ -1591,10 +1592,10 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>114</v>
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>179</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>9</v>
@@ -1608,10 +1609,10 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>138</v>
+      </c>
+      <c r="D31" t="s">
+        <v>180</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>18</v>
@@ -1625,10 +1626,10 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
+        <v>181</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>7</v>
@@ -1642,10 +1643,10 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>117</v>
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>182</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>19</v>
@@ -1659,10 +1660,10 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
+      </c>
+      <c r="D34" t="s">
+        <v>183</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>9</v>
@@ -1676,10 +1677,10 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
+      </c>
+      <c r="D35" t="s">
+        <v>184</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>20</v>
@@ -1693,10 +1694,10 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
+      </c>
+      <c r="D36" t="s">
+        <v>185</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>7</v>
@@ -1710,10 +1711,10 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>121</v>
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>186</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>21</v>
@@ -1727,10 +1728,10 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>122</v>
+        <v>145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>187</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>9</v>
@@ -1744,10 +1745,10 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
+      </c>
+      <c r="D39" t="s">
+        <v>188</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>22</v>
@@ -1761,10 +1762,10 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
+      </c>
+      <c r="D40" t="s">
+        <v>189</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>7</v>
@@ -1778,10 +1779,10 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>190</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>23</v>
@@ -1795,10 +1796,10 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="G42" t="s">
         <v>9</v>
@@ -1812,10 +1813,10 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="G43" t="s">
         <v>24</v>
@@ -2443,10 +2444,10 @@
     </row>
     <row r="168" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G168" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H168" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2480,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -2497,13 +2498,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -2517,10 +2518,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -2643,7 +2644,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2672,7 +2673,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="H14" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2691,7 +2692,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2710,7 +2711,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -2720,7 +2721,7 @@
       <c r="B17" s="4"/>
       <c r="E17" s="2"/>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -2730,7 +2731,7 @@
       <c r="B18" s="4"/>
       <c r="E18" s="2"/>
       <c r="H18" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -2740,7 +2741,7 @@
       <c r="B19" s="4"/>
       <c r="E19" s="2"/>
       <c r="H19" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -2750,7 +2751,7 @@
       <c r="B20" s="4"/>
       <c r="E20" s="2"/>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2760,7 +2761,7 @@
       <c r="B21" s="4"/>
       <c r="E21" s="2"/>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="J21">
         <v>7</v>
@@ -2770,7 +2771,7 @@
       <c r="B22" s="4"/>
       <c r="E22" s="2"/>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="J22">
         <v>8</v>
@@ -2780,7 +2781,7 @@
       <c r="B23" s="4"/>
       <c r="E23" s="2"/>
       <c r="H23" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -2790,7 +2791,7 @@
       <c r="B24" s="4"/>
       <c r="E24" s="2"/>
       <c r="H24" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="J24">
         <v>10</v>
@@ -2800,7 +2801,7 @@
       <c r="B25" s="4"/>
       <c r="E25" s="2"/>
       <c r="H25" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="J25">
         <v>11</v>
@@ -2810,7 +2811,7 @@
       <c r="B26" s="4"/>
       <c r="E26" s="2"/>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="J26">
         <v>12</v>

--- a/ExcelToCs/配置/图鉴配置表.xlsx
+++ b/ExcelToCs/配置/图鉴配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FC240C-4EBF-4AEF-A8FF-C4AEAA42F560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF18983-D95D-472C-B530-6917243A56D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="1215" windowWidth="38700" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1695" windowWidth="38400" windowHeight="18885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#PlantIllustrations" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="234">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,9 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plantImagePath</t>
-  </si>
-  <si>
     <t>僵尸图片路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -653,6 +659,135 @@
   </si>
   <si>
     <t>plantIllustrationsInfo_CobCannon</t>
+  </si>
+  <si>
+    <t>zombieImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Illustrations/ZombieNormal</t>
+  </si>
+  <si>
+    <t>UI/Illustrations/ZombieCone</t>
+  </si>
+  <si>
+    <t>UI/Illustrations/ZombieBucket</t>
+  </si>
+  <si>
+    <t>UI/Illustrations/ZombieScreendoor</t>
+  </si>
+  <si>
+    <t>UI/Illustrations/ZombieFlag</t>
+  </si>
+  <si>
+    <t>UI/Illustrations/ZombieFootball</t>
+  </si>
+  <si>
+    <t>UI/Illustrations/ZombiePaper</t>
+  </si>
+  <si>
+    <t>UI/Illustrations/ZombiePolevaulter</t>
+  </si>
+  <si>
+    <t>UI/Illustrations/ZombieBalloon</t>
+  </si>
+  <si>
+    <t>UI/Illustrations/ZombieZamboni</t>
+  </si>
+  <si>
+    <t>UI/Illustrations/ZombieCatapult</t>
+  </si>
+  <si>
+    <t>UI/Illustrations/ZombieGargantuan</t>
+  </si>
+  <si>
+    <t>UI/Illustrations/ZombieBoss</t>
+  </si>
+  <si>
+    <t>僵尸名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombieName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombieName_ZombieNormal</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieCone</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieBucket</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieScreendoor</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieFlag</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieFootball</t>
+  </si>
+  <si>
+    <t>zombieName_ZombiePaper</t>
+  </si>
+  <si>
+    <t>zombieName_ZombiePolevaulter</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieBalloon</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieZamboni</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieCatapult</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieGargantuan</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieBoss</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieNormal</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieCone</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieBucket</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieScreendoor</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieFlag</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieFootball</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombiePaper</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombiePolevaulter</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieBalloon</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieZamboni</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieCatapult</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieGargantuan</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieBoss</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C20B1F7-B588-42E6-AFFF-4684D8709164}">
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1168,10 +1303,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
         <v>152</v>
-      </c>
-      <c r="D4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1182,10 +1317,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1196,10 +1331,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1210,10 +1345,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1224,10 +1359,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1238,10 +1373,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1252,10 +1387,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -1269,10 +1404,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>6</v>
@@ -1286,10 +1421,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>7</v>
@@ -1303,10 +1438,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>8</v>
@@ -1320,10 +1455,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
@@ -1337,10 +1472,10 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>10</v>
@@ -1354,10 +1489,10 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>7</v>
@@ -1371,10 +1506,10 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1388,10 +1523,10 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>9</v>
@@ -1405,10 +1540,10 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>12</v>
@@ -1422,10 +1557,10 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>7</v>
@@ -1439,10 +1574,10 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
@@ -1456,10 +1591,10 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>9</v>
@@ -1473,10 +1608,10 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>14</v>
@@ -1490,10 +1625,10 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>7</v>
@@ -1507,10 +1642,10 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>15</v>
@@ -1524,10 +1659,10 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>9</v>
@@ -1541,10 +1676,10 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>16</v>
@@ -1558,10 +1693,10 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>7</v>
@@ -1575,10 +1710,10 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
@@ -1592,10 +1727,10 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>9</v>
@@ -1609,10 +1744,10 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>18</v>
@@ -1626,10 +1761,10 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>7</v>
@@ -1643,10 +1778,10 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>19</v>
@@ -1660,10 +1795,10 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>9</v>
@@ -1677,10 +1812,10 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>20</v>
@@ -1694,10 +1829,10 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>7</v>
@@ -1711,10 +1846,10 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>21</v>
@@ -1728,10 +1863,10 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>9</v>
@@ -1745,10 +1880,10 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>22</v>
@@ -1762,10 +1897,10 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>7</v>
@@ -1779,10 +1914,10 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>23</v>
@@ -1796,10 +1931,10 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G42" t="s">
         <v>9</v>
@@ -1813,10 +1948,10 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G43" t="s">
         <v>24</v>
@@ -2463,8 +2598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AF12BA-287C-4CC2-A9BD-8ECB6D1EC40D}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2474,6 +2609,7 @@
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="45.875" customWidth="1"/>
+    <col min="6" max="6" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -2484,12 +2620,15 @@
         <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2504,9 +2643,12 @@
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2526,6 +2668,9 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2538,7 +2683,15 @@
         <f>_xlfn.TEXTJOIN(,,,"Prefabs/Zombie/Illustrations/","Zombie",H14)</f>
         <v>Prefabs/Zombie/Illustrations/ZombieNormal</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2551,7 +2704,15 @@
         <f t="shared" ref="C5:C16" si="0">_xlfn.TEXTJOIN(,,,"Prefabs/Zombie/Illustrations/","Zombie",H15)</f>
         <v>Prefabs/Zombie/Illustrations/ZombieCone</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2564,7 +2725,15 @@
         <f t="shared" si="0"/>
         <v>Prefabs/Zombie/Illustrations/ZombieBucket</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="D6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2577,7 +2746,15 @@
         <f t="shared" si="0"/>
         <v>Prefabs/Zombie/Illustrations/ZombieScreendoor</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2590,7 +2767,15 @@
         <f t="shared" si="0"/>
         <v>Prefabs/Zombie/Illustrations/ZombieFlag</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="D8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2603,7 +2788,15 @@
         <f t="shared" si="0"/>
         <v>Prefabs/Zombie/Illustrations/ZombieFootball</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2616,7 +2809,15 @@
         <f t="shared" si="0"/>
         <v>Prefabs/Zombie/Illustrations/ZombiePaper</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="D10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2629,7 +2830,15 @@
         <f t="shared" si="0"/>
         <v>Prefabs/Zombie/Illustrations/ZombiePolevaulter</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -2642,7 +2851,15 @@
         <f t="shared" si="0"/>
         <v>Prefabs/Zombie/Illustrations/ZombieBalloon</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="D12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" t="s">
+        <v>229</v>
+      </c>
       <c r="H12" t="s">
         <v>94</v>
       </c>
@@ -2658,7 +2875,15 @@
         <f t="shared" si="0"/>
         <v>Prefabs/Zombie/Illustrations/ZombieZamboni</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="D13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -2671,9 +2896,17 @@
         <f t="shared" si="0"/>
         <v>Prefabs/Zombie/Illustrations/ZombieCatapult</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="D14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" t="s">
+        <v>231</v>
+      </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2690,9 +2923,17 @@
         <f t="shared" si="0"/>
         <v>Prefabs/Zombie/Illustrations/ZombieGargantuan</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="D15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" t="s">
+        <v>232</v>
+      </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2709,9 +2950,17 @@
         <f t="shared" si="0"/>
         <v>Prefabs/Zombie/Illustrations/ZombieBoss</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="D16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" t="s">
+        <v>233</v>
+      </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -2720,8 +2969,9 @@
     <row r="17" spans="2:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
       <c r="H17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -2730,8 +2980,9 @@
     <row r="18" spans="2:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -2740,8 +2991,9 @@
     <row r="19" spans="2:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -2751,7 +3003,7 @@
       <c r="B20" s="4"/>
       <c r="E20" s="2"/>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2761,7 +3013,7 @@
       <c r="B21" s="4"/>
       <c r="E21" s="2"/>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J21">
         <v>7</v>
@@ -2771,7 +3023,7 @@
       <c r="B22" s="4"/>
       <c r="E22" s="2"/>
       <c r="H22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J22">
         <v>8</v>
@@ -2781,7 +3033,7 @@
       <c r="B23" s="4"/>
       <c r="E23" s="2"/>
       <c r="H23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -2791,7 +3043,7 @@
       <c r="B24" s="4"/>
       <c r="E24" s="2"/>
       <c r="H24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J24">
         <v>10</v>
@@ -2801,7 +3053,7 @@
       <c r="B25" s="4"/>
       <c r="E25" s="2"/>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J25">
         <v>11</v>
@@ -2811,7 +3063,7 @@
       <c r="B26" s="4"/>
       <c r="E26" s="2"/>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J26">
         <v>12</v>
